--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Courses_And_ Exam_Unit_Test_Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Courses_And_ Exam_Unit_Test_Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Capstone Project\DoAnJSSu16\201605JS01\WIP\Users\LinhNH\Veazy_Unit_Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" tabRatio="698" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" tabRatio="698" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -139,6 +139,7 @@
   <authors>
     <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
+    <author>MinhNN</author>
   </authors>
   <commentList>
     <comment ref="A5" authorId="0" shapeId="0">
@@ -168,6 +169,79 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Precondition chung trong service layer nay la Application Context duoc initialized. Minh ko can dieu kien connect vi chi test service layer thoi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MinhNN:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>row trống thì bỏ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mình làm sơ cua, nên ko thể đảm bảo tỷ lệ coverage code được, case nào ko tích thì bỏ.
+Case này null đúng ra là expect exception.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -177,6 +251,7 @@
   <authors>
     <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
+    <author>MinhNN</author>
   </authors>
   <commentList>
     <comment ref="A5" authorId="0" shapeId="0">
@@ -208,6 +283,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+tuong tu cmt ben getCourses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+expect exception</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -215,8 +338,146 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>MinhNN</author>
     <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cái dòng này phải bịa ko @@</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not mandatory
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thieu
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+case null nua</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+expect no exception</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nguyen Hoang Anh</author>
+    <author>ANa</author>
+    <author>MinhNN</author>
   </authors>
   <commentList>
     <comment ref="A5" authorId="0" shapeId="0">
@@ -247,42 +508,27 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nguyen Hoang Anh</author>
-    <author>ANa</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Not mandatory</t>
+expect exception</t>
         </r>
       </text>
     </comment>
@@ -1306,7 +1552,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1751,6 +1997,32 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3174,7 +3446,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3814,6 +4086,9 @@
     <xf numFmtId="0" fontId="69" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="39" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3890,6 +4165,105 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="75" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="80" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3899,15 +4273,9 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3932,98 +4300,35 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="43" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="84" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="36" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="75" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="80" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="81" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -4034,34 +4339,82 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="43" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="87" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="84" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="36" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="59" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4073,9 +4426,6 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4085,98 +4435,23 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="87" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="59" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4434,7 +4709,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4858,7 +5133,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -6387,13 +6662,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="192" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="191"/>
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="193"/>
@@ -6404,11 +6679,11 @@
       <c r="A4" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="250" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="198" t="s">
         <v>2</v>
       </c>
@@ -6420,25 +6695,25 @@
       <c r="A5" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="251" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="197" t="s">
         <v>148</v>
       </c>
       <c r="F5" s="199"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="253" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
       <c r="E6" s="198" t="s">
         <v>6</v>
       </c>
@@ -6447,10 +6722,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="251"/>
-      <c r="B7" s="252"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
       <c r="E7" s="198" t="s">
         <v>8</v>
       </c>
@@ -6622,42 +6897,42 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="255" t="str">
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="258"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="255" t="str">
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="256" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="258"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="262" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="263"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="46">
         <v>100</v>
       </c>
@@ -6666,18 +6941,18 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="253" t="s">
+      <c r="A7" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="258" t="s">
+      <c r="B7" s="254"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="259" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6739,7 +7014,7 @@
       <c r="E11" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="369" t="s">
+      <c r="F11" s="248" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="20"/>
@@ -6759,7 +7034,7 @@
       <c r="E12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="369" t="s">
+      <c r="F12" s="248" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="20"/>
@@ -6779,7 +7054,7 @@
       <c r="E13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="369" t="s">
+      <c r="F13" s="248" t="s">
         <v>69</v>
       </c>
       <c r="G13" s="20"/>
@@ -6799,7 +7074,7 @@
       <c r="E14" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="369" t="s">
+      <c r="F14" s="248" t="s">
         <v>142</v>
       </c>
       <c r="G14" s="20"/>
@@ -6864,7 +7139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -6882,17 +7157,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="23"/>
@@ -6909,72 +7184,72 @@
       <c r="A4" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="266" t="str">
+      <c r="B4" s="267" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="267" t="s">
+      <c r="C4" s="267"/>
+      <c r="D4" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="270"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="271"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="266" t="str">
+      <c r="B5" s="267" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="267" t="s">
+      <c r="C5" s="267"/>
+      <c r="D5" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="267"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="270"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="271"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="266" t="str">
+      <c r="B6" s="267" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>Veazy_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="266"/>
-      <c r="D6" s="267" t="s">
+      <c r="C6" s="267"/>
+      <c r="D6" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="267"/>
-      <c r="F6" s="271" t="s">
+      <c r="E6" s="268"/>
+      <c r="F6" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="274"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="26"/>
@@ -7042,7 +7317,7 @@
       <c r="A12" s="34">
         <v>1</v>
       </c>
-      <c r="B12" s="369" t="s">
+      <c r="B12" s="248" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="35">
@@ -7078,7 +7353,7 @@
       <c r="A13" s="34">
         <v>2</v>
       </c>
-      <c r="B13" s="369" t="s">
+      <c r="B13" s="248" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="35">
@@ -7095,7 +7370,7 @@
       </c>
       <c r="F13" s="36">
         <f>findLearnerExams!L7</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="35">
         <f>findLearnerExams!M7</f>
@@ -7114,7 +7389,7 @@
       <c r="A14" s="34">
         <v>3</v>
       </c>
-      <c r="B14" s="369" t="s">
+      <c r="B14" s="248" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="35">
@@ -7150,7 +7425,7 @@
       <c r="A15" s="34">
         <v>4</v>
       </c>
-      <c r="B15" s="369" t="s">
+      <c r="B15" s="248" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="35">
@@ -7234,7 +7509,7 @@
       </c>
       <c r="F19" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
@@ -7303,7 +7578,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="51">
         <f>F19*100/I19</f>
-        <v>77.777777777777771</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>29</v>
@@ -7369,7 +7644,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7393,59 +7668,59 @@
       <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="306" t="str">
+      <c r="B2" s="276"/>
+      <c r="C2" s="277" t="str">
         <f>機能一覧!E11</f>
         <v>Function1</v>
       </c>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="309" t="s">
+      <c r="D2" s="278"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-      <c r="L2" s="274" t="str">
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="308" t="str">
         <f>機能一覧!D11</f>
         <v>getCourses</v>
       </c>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="276"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="309"/>
+      <c r="Q2" s="309"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="310"/>
       <c r="V2" s="72"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="288" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="291" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="296" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="277"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="281" t="s">
+      <c r="D3" s="297"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="313" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
@@ -7454,117 +7729,117 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="290" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="317">
+      <c r="B4" s="289"/>
+      <c r="C4" s="291">
         <v>100</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="75"/>
-      <c r="F4" s="281" t="s">
+      <c r="F4" s="313" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="284">
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="316">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
         <v>9</v>
       </c>
-      <c r="M4" s="285"/>
-      <c r="N4" s="285"/>
-      <c r="O4" s="285"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="285"/>
-      <c r="R4" s="285"/>
-      <c r="S4" s="285"/>
-      <c r="T4" s="286"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="317"/>
+      <c r="O4" s="317"/>
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="318"/>
       <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="295" t="s">
+      <c r="A5" s="288" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="297" t="s">
+      <c r="B5" s="289"/>
+      <c r="C5" s="301" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="293" t="s">
+      <c r="A6" s="299" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="294"/>
-      <c r="C6" s="278" t="s">
+      <c r="B6" s="300"/>
+      <c r="C6" s="311" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="278" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="311" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="279"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="303"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="303" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="302" t="s">
+      <c r="M6" s="303"/>
+      <c r="N6" s="303"/>
+      <c r="O6" s="306" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="307"/>
       <c r="V6" s="72"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="315">
+      <c r="A7" s="287">
         <f>COUNTIF(F18:HC18,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="314"/>
-      <c r="C7" s="312">
+      <c r="B7" s="286"/>
+      <c r="C7" s="283">
         <f>COUNTIF(F18:HC18,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="312">
+      <c r="D7" s="284"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="283">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="313"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="285"/>
       <c r="L7" s="76">
         <f>COUNTIF(E17:HC17,"N")</f>
         <v>1</v>
@@ -7577,15 +7852,15 @@
         <f>COUNTIF(E17:HC17,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="299">
+      <c r="O7" s="304">
         <f>COUNTA(E9:HF9)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="300"/>
-      <c r="Q7" s="300"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="300"/>
-      <c r="T7" s="301"/>
+      <c r="P7" s="284"/>
+      <c r="Q7" s="284"/>
+      <c r="R7" s="284"/>
+      <c r="S7" s="284"/>
+      <c r="T7" s="305"/>
       <c r="U7" s="77"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7679,11 +7954,11 @@
       <c r="A17" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="295" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="290"/>
-      <c r="D17" s="290"/>
+      <c r="C17" s="295"/>
+      <c r="D17" s="295"/>
       <c r="E17" s="102"/>
       <c r="F17" s="183" t="s">
         <v>42</v>
@@ -7691,11 +7966,11 @@
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
       <c r="A18" s="113"/>
-      <c r="B18" s="311" t="s">
+      <c r="B18" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="311"/>
-      <c r="D18" s="311"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="282"/>
       <c r="E18" s="104"/>
       <c r="F18" s="184" t="s">
         <v>46</v>
@@ -7703,11 +7978,11 @@
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
       <c r="A19" s="113"/>
-      <c r="B19" s="288" t="s">
+      <c r="B19" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="293"/>
       <c r="E19" s="101"/>
       <c r="F19" s="106">
         <v>39139</v>
@@ -7715,11 +7990,11 @@
     </row>
     <row r="20" spans="1:6" ht="11.25" thickBot="1">
       <c r="A20" s="177"/>
-      <c r="B20" s="289" t="s">
+      <c r="B20" s="294" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="289"/>
-      <c r="D20" s="289"/>
+      <c r="C20" s="294"/>
+      <c r="D20" s="294"/>
       <c r="E20" s="107"/>
       <c r="F20" s="108"/>
     </row>
@@ -7728,6 +8003,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
@@ -7738,23 +8030,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -7781,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7807,58 +8082,58 @@
       <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="324" t="str">
+      <c r="B2" s="321"/>
+      <c r="C2" s="322" t="str">
         <f>機能一覧!E12</f>
         <v>Function2</v>
       </c>
-      <c r="D2" s="326"/>
+      <c r="D2" s="324"/>
       <c r="E2" s="172"/>
-      <c r="F2" s="323" t="s">
+      <c r="F2" s="321" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="324" t="str">
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="322" t="str">
         <f>機能一覧!D12</f>
         <v>findLearnerExams</v>
       </c>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
-      <c r="S2" s="324"/>
-      <c r="T2" s="325"/>
+      <c r="M2" s="322"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="322"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="322"/>
+      <c r="T2" s="323"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="330" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="291" t="s">
+      <c r="B3" s="331"/>
+      <c r="C3" s="296" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="277"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="328" t="s">
+      <c r="D3" s="297"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="326" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="330"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
@@ -7867,120 +8142,120 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="295" t="s">
+      <c r="A4" s="288" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="317">
+      <c r="B4" s="289"/>
+      <c r="C4" s="291">
         <v>300</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="75"/>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="284">
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="316">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
         <v>26</v>
       </c>
-      <c r="M4" s="285"/>
-      <c r="N4" s="285"/>
-      <c r="O4" s="285"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="285"/>
-      <c r="R4" s="285"/>
-      <c r="S4" s="285"/>
-      <c r="T4" s="286"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="317"/>
+      <c r="O4" s="317"/>
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="318"/>
       <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="295" t="s">
+      <c r="A5" s="288" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="297" t="s">
+      <c r="B5" s="289"/>
+      <c r="C5" s="301" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="321" t="s">
+      <c r="A6" s="332" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="294"/>
-      <c r="C6" s="327" t="s">
+      <c r="B6" s="300"/>
+      <c r="C6" s="325" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="327" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="279"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="279" t="s">
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="303"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="303" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="302" t="s">
+      <c r="M6" s="303"/>
+      <c r="N6" s="303"/>
+      <c r="O6" s="306" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="307"/>
       <c r="V6" s="72"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="315">
+      <c r="A7" s="287">
         <f>COUNTIF(F24:I24,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="314"/>
-      <c r="C7" s="312">
+      <c r="B7" s="286"/>
+      <c r="C7" s="283">
         <f>COUNTIF(F24:I24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="312">
+      <c r="D7" s="284"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="283">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="313"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="285"/>
       <c r="L7" s="76">
         <f>COUNTIF(F23:I23,"N")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" s="76">
         <f>COUNTIF(E33:HQ33,"A")</f>
@@ -7990,15 +8265,15 @@
         <f>COUNTIF(E33:HQ33,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="299">
+      <c r="O7" s="304">
         <f>COUNTA(E9:N9)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="300"/>
-      <c r="Q7" s="300"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="300"/>
-      <c r="T7" s="301"/>
+      <c r="P7" s="284"/>
+      <c r="Q7" s="284"/>
+      <c r="R7" s="284"/>
+      <c r="S7" s="284"/>
+      <c r="T7" s="305"/>
       <c r="U7" s="77"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -8218,11 +8493,11 @@
       <c r="A23" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="290" t="s">
+      <c r="B23" s="295" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="290"/>
-      <c r="D23" s="290"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="295"/>
       <c r="E23" s="102"/>
       <c r="F23" s="103" t="s">
         <v>42</v>
@@ -8231,19 +8506,19 @@
         <v>42</v>
       </c>
       <c r="H23" s="103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" s="103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24" s="113"/>
-      <c r="B24" s="311" t="s">
+      <c r="B24" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="311"/>
-      <c r="D24" s="311"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="282"/>
       <c r="E24" s="104"/>
       <c r="F24" s="105" t="s">
         <v>46</v>
@@ -8260,11 +8535,11 @@
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1">
       <c r="A25" s="113"/>
-      <c r="B25" s="288" t="s">
+      <c r="B25" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="288"/>
-      <c r="D25" s="288"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="101"/>
       <c r="F25" s="106">
         <v>39139</v>
@@ -8281,11 +8556,11 @@
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="177"/>
-      <c r="B26" s="289" t="s">
+      <c r="B26" s="294" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="289"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
       <c r="E26" s="107"/>
       <c r="F26" s="108"/>
       <c r="G26" s="108"/>
@@ -8302,6 +8577,17 @@
     <row r="37" ht="10.5"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="F2:K2"/>
@@ -8318,17 +8604,6 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C5:T5"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -8355,8 +8630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8380,57 +8655,57 @@
       <c r="B1" s="115"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="324" t="str">
+      <c r="B2" s="321"/>
+      <c r="C2" s="322" t="str">
         <f>機能一覧!E13</f>
         <v>Function3</v>
       </c>
-      <c r="D2" s="326"/>
-      <c r="F2" s="323" t="s">
+      <c r="D2" s="324"/>
+      <c r="F2" s="321" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="358" t="str">
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="333" t="str">
         <f>機能一覧!D13</f>
         <v>saveExam</v>
       </c>
-      <c r="M2" s="359"/>
-      <c r="N2" s="359"/>
-      <c r="O2" s="359"/>
-      <c r="P2" s="359"/>
-      <c r="Q2" s="359"/>
-      <c r="R2" s="359"/>
-      <c r="S2" s="359"/>
-      <c r="T2" s="360"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="335"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="357" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="334" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="361" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="355" t="s">
+      <c r="D3" s="344"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="339" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
@@ -8439,117 +8714,117 @@
       <c r="T3" s="119"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="357" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="367">
+      <c r="B4" s="358"/>
+      <c r="C4" s="348">
         <v>300</v>
       </c>
-      <c r="D4" s="368"/>
+      <c r="D4" s="349"/>
       <c r="E4" s="120"/>
-      <c r="F4" s="355" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="356"/>
-      <c r="H4" s="356"/>
-      <c r="I4" s="356"/>
-      <c r="J4" s="356"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="364">
+      <c r="F4" s="370" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="341"/>
+      <c r="L4" s="345">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
         <v>29</v>
       </c>
-      <c r="M4" s="365"/>
-      <c r="N4" s="365"/>
-      <c r="O4" s="365"/>
-      <c r="P4" s="365"/>
-      <c r="Q4" s="365"/>
-      <c r="R4" s="365"/>
-      <c r="S4" s="365"/>
-      <c r="T4" s="366"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="346"/>
+      <c r="Q4" s="346"/>
+      <c r="R4" s="346"/>
+      <c r="S4" s="346"/>
+      <c r="T4" s="347"/>
       <c r="V4" s="121"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="339" t="s">
+      <c r="A5" s="357" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="340"/>
-      <c r="C5" s="341" t="s">
+      <c r="B5" s="358"/>
+      <c r="C5" s="365" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="342"/>
-      <c r="H5" s="342"/>
-      <c r="I5" s="342"/>
-      <c r="J5" s="342"/>
-      <c r="K5" s="342"/>
-      <c r="L5" s="341"/>
-      <c r="M5" s="341"/>
-      <c r="N5" s="341"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="341"/>
-      <c r="Q5" s="341"/>
-      <c r="R5" s="341"/>
-      <c r="S5" s="341"/>
-      <c r="T5" s="341"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="366"/>
+      <c r="K5" s="366"/>
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="365"/>
+      <c r="P5" s="365"/>
+      <c r="Q5" s="365"/>
+      <c r="R5" s="365"/>
+      <c r="S5" s="365"/>
+      <c r="T5" s="365"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="337" t="s">
+      <c r="A6" s="363" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="338"/>
-      <c r="C6" s="353" t="s">
+      <c r="B6" s="364"/>
+      <c r="C6" s="336" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="343"/>
-      <c r="E6" s="354"/>
-      <c r="F6" s="353" t="s">
+      <c r="D6" s="337"/>
+      <c r="E6" s="356"/>
+      <c r="F6" s="336" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="343"/>
-      <c r="H6" s="343"/>
-      <c r="I6" s="343"/>
-      <c r="J6" s="343"/>
-      <c r="K6" s="361"/>
-      <c r="L6" s="343" t="s">
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="338"/>
+      <c r="L6" s="337" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="343"/>
-      <c r="N6" s="343"/>
-      <c r="O6" s="362" t="s">
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="342" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="343"/>
-      <c r="R6" s="343"/>
-      <c r="S6" s="343"/>
-      <c r="T6" s="363"/>
+      <c r="P6" s="337"/>
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337"/>
+      <c r="S6" s="337"/>
+      <c r="T6" s="343"/>
       <c r="V6" s="121"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="352">
+      <c r="A7" s="355">
         <f>COUNTIF(F26:HQ37,"P")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="351"/>
-      <c r="C7" s="347">
+      <c r="B7" s="354"/>
+      <c r="C7" s="352">
         <f>COUNTIF(F37:HQ37,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="345"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="347">
+      <c r="D7" s="353"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="352">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="345"/>
-      <c r="H7" s="345"/>
-      <c r="I7" s="345"/>
-      <c r="J7" s="345"/>
-      <c r="K7" s="348"/>
+      <c r="G7" s="353"/>
+      <c r="H7" s="353"/>
+      <c r="I7" s="353"/>
+      <c r="J7" s="353"/>
+      <c r="K7" s="369"/>
       <c r="L7" s="122">
         <f>COUNTIF(F25:HQ36,"N")</f>
         <v>1</v>
@@ -8562,15 +8837,15 @@
         <f>COUNTIF(F25:AA25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="344">
+      <c r="O7" s="367">
         <f>COUNTA(E9:HT9)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="345"/>
-      <c r="Q7" s="345"/>
-      <c r="R7" s="345"/>
-      <c r="S7" s="345"/>
-      <c r="T7" s="346"/>
+      <c r="P7" s="353"/>
+      <c r="Q7" s="353"/>
+      <c r="R7" s="353"/>
+      <c r="S7" s="353"/>
+      <c r="T7" s="368"/>
       <c r="U7" s="123"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -8736,11 +9011,11 @@
       <c r="A25" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="333" t="s">
+      <c r="B25" s="360" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="333"/>
-      <c r="D25" s="333"/>
+      <c r="C25" s="360"/>
+      <c r="D25" s="360"/>
       <c r="E25" s="152"/>
       <c r="F25" s="153" t="s">
         <v>42</v>
@@ -8748,11 +9023,11 @@
     </row>
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
       <c r="A26" s="168"/>
-      <c r="B26" s="349" t="s">
+      <c r="B26" s="350" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="349"/>
-      <c r="D26" s="349"/>
+      <c r="C26" s="350"/>
+      <c r="D26" s="350"/>
       <c r="E26" s="154"/>
       <c r="F26" s="155" t="s">
         <v>46</v>
@@ -8760,11 +9035,11 @@
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="168"/>
-      <c r="B27" s="350" t="s">
+      <c r="B27" s="351" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="350"/>
-      <c r="D27" s="350"/>
+      <c r="C27" s="351"/>
+      <c r="D27" s="351"/>
       <c r="E27" s="146"/>
       <c r="F27" s="156">
         <v>39139</v>
@@ -8772,11 +9047,11 @@
     </row>
     <row r="28" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="169"/>
-      <c r="B28" s="332" t="s">
+      <c r="B28" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="359"/>
       <c r="E28" s="157"/>
       <c r="F28" s="158"/>
     </row>
@@ -8790,14 +9065,15 @@
     <row r="40" ht="10.5"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="F7:K7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B26:D26"/>
@@ -8808,15 +9084,14 @@
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -8843,7 +9118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:T5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -8866,55 +9143,55 @@
       <c r="B1" s="115"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="324" t="s">
+      <c r="B2" s="321"/>
+      <c r="C2" s="322" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="326"/>
-      <c r="F2" s="323" t="s">
+      <c r="D2" s="324"/>
+      <c r="F2" s="321" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="358" t="s">
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="333" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="359"/>
-      <c r="N2" s="359"/>
-      <c r="O2" s="359"/>
-      <c r="P2" s="359"/>
-      <c r="Q2" s="359"/>
-      <c r="R2" s="359"/>
-      <c r="S2" s="359"/>
-      <c r="T2" s="360"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="335"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="357" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="334" t="s">
+      <c r="B3" s="358"/>
+      <c r="C3" s="361" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="355" t="s">
+      <c r="D3" s="344"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="339" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
       <c r="Q3" s="118"/>
@@ -8923,117 +9200,117 @@
       <c r="T3" s="119"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="357" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="367">
+      <c r="B4" s="358"/>
+      <c r="C4" s="348">
         <v>300</v>
       </c>
-      <c r="D4" s="368"/>
+      <c r="D4" s="349"/>
       <c r="E4" s="120"/>
-      <c r="F4" s="355" t="s">
+      <c r="F4" s="339" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="356"/>
-      <c r="H4" s="356"/>
-      <c r="I4" s="356"/>
-      <c r="J4" s="356"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="364">
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="341"/>
+      <c r="L4" s="345">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
         <v>27</v>
       </c>
-      <c r="M4" s="365"/>
-      <c r="N4" s="365"/>
-      <c r="O4" s="365"/>
-      <c r="P4" s="365"/>
-      <c r="Q4" s="365"/>
-      <c r="R4" s="365"/>
-      <c r="S4" s="365"/>
-      <c r="T4" s="366"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="346"/>
+      <c r="Q4" s="346"/>
+      <c r="R4" s="346"/>
+      <c r="S4" s="346"/>
+      <c r="T4" s="347"/>
       <c r="V4" s="121"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="339" t="s">
+      <c r="A5" s="357" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="340"/>
-      <c r="C5" s="341" t="s">
+      <c r="B5" s="358"/>
+      <c r="C5" s="365" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="342"/>
-      <c r="H5" s="342"/>
-      <c r="I5" s="342"/>
-      <c r="J5" s="342"/>
-      <c r="K5" s="342"/>
-      <c r="L5" s="341"/>
-      <c r="M5" s="341"/>
-      <c r="N5" s="341"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="341"/>
-      <c r="Q5" s="341"/>
-      <c r="R5" s="341"/>
-      <c r="S5" s="341"/>
-      <c r="T5" s="341"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="366"/>
+      <c r="K5" s="366"/>
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="365"/>
+      <c r="P5" s="365"/>
+      <c r="Q5" s="365"/>
+      <c r="R5" s="365"/>
+      <c r="S5" s="365"/>
+      <c r="T5" s="365"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="337" t="s">
+      <c r="A6" s="363" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="338"/>
-      <c r="C6" s="353" t="s">
+      <c r="B6" s="364"/>
+      <c r="C6" s="336" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="343"/>
-      <c r="E6" s="354"/>
-      <c r="F6" s="353" t="s">
+      <c r="D6" s="337"/>
+      <c r="E6" s="356"/>
+      <c r="F6" s="336" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="343"/>
-      <c r="H6" s="343"/>
-      <c r="I6" s="343"/>
-      <c r="J6" s="343"/>
-      <c r="K6" s="361"/>
-      <c r="L6" s="343" t="s">
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="338"/>
+      <c r="L6" s="337" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="343"/>
-      <c r="N6" s="343"/>
-      <c r="O6" s="362" t="s">
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="342" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="343"/>
-      <c r="R6" s="343"/>
-      <c r="S6" s="343"/>
-      <c r="T6" s="363"/>
+      <c r="P6" s="337"/>
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337"/>
+      <c r="S6" s="337"/>
+      <c r="T6" s="343"/>
       <c r="V6" s="121"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="352">
+      <c r="A7" s="355">
         <f>COUNTIF(F22:HE22,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="351"/>
-      <c r="C7" s="347">
+      <c r="B7" s="354"/>
+      <c r="C7" s="352">
         <f>COUNTIF(F22:HE22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="345"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="347">
+      <c r="D7" s="353"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="352">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="345"/>
-      <c r="H7" s="345"/>
-      <c r="I7" s="345"/>
-      <c r="J7" s="345"/>
-      <c r="K7" s="348"/>
+      <c r="G7" s="353"/>
+      <c r="H7" s="353"/>
+      <c r="I7" s="353"/>
+      <c r="J7" s="353"/>
+      <c r="K7" s="369"/>
       <c r="L7" s="122">
         <f>COUNTIF(E21:HE21,"N")</f>
         <v>1</v>
@@ -9046,15 +9323,15 @@
         <f>COUNTIF(E21:HE21,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="344">
+      <c r="O7" s="367">
         <f>COUNTA(E9:HH9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="345"/>
-      <c r="Q7" s="345"/>
-      <c r="R7" s="345"/>
-      <c r="S7" s="345"/>
-      <c r="T7" s="346"/>
+      <c r="P7" s="353"/>
+      <c r="Q7" s="353"/>
+      <c r="R7" s="353"/>
+      <c r="S7" s="353"/>
+      <c r="T7" s="368"/>
       <c r="U7" s="123"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9228,11 +9505,11 @@
       <c r="A21" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="333" t="s">
+      <c r="B21" s="360" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="333"/>
-      <c r="D21" s="333"/>
+      <c r="C21" s="360"/>
+      <c r="D21" s="360"/>
       <c r="E21" s="226"/>
       <c r="F21" s="153" t="s">
         <v>42</v>
@@ -9246,11 +9523,11 @@
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
       <c r="A22" s="168"/>
-      <c r="B22" s="349" t="s">
+      <c r="B22" s="350" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="349"/>
-      <c r="D22" s="349"/>
+      <c r="C22" s="350"/>
+      <c r="D22" s="350"/>
       <c r="E22" s="154"/>
       <c r="F22" s="155" t="s">
         <v>46</v>
@@ -9264,11 +9541,11 @@
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="350" t="s">
+      <c r="B23" s="351" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="350"/>
-      <c r="D23" s="350"/>
+      <c r="C23" s="351"/>
+      <c r="D23" s="351"/>
       <c r="E23" s="146"/>
       <c r="F23" s="156">
         <v>39139</v>
@@ -9282,11 +9559,11 @@
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="169"/>
-      <c r="B24" s="332" t="s">
+      <c r="B24" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
+      <c r="C24" s="359"/>
+      <c r="D24" s="359"/>
       <c r="E24" s="157"/>
       <c r="F24" s="158"/>
       <c r="G24" s="158"/>
@@ -9302,25 +9579,6 @@
     <row r="39" ht="10.5"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9329,6 +9587,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Courses_And_ Exam_Unit_Test_Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Courses_And_ Exam_Unit_Test_Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Capstone Project\DoAnJSSu16\201605JS01\WIP\Users\LinhNH\Veazy_Unit_Test_Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\201605JS01\WIP\Users\LinhNH\Veazy_Unit_Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" tabRatio="698" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" tabRatio="698" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <definedName name="generateTest">#REF!</definedName>
     <definedName name="getAllReports">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">findExamById!$A$1:$T$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">findLearnerExams!$A$1:$T$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">getCourses!$A$1:$T$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">saveExam!$A$1:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">findExamById!$A$1:$T$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">findLearnerExams!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">getCourses!$A$1:$T$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">saveExam!$A$1:$T$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト報告!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧!$A$1:$H$17</definedName>
@@ -137,26 +137,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
     <author>MinhNN</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="2" shapeId="0">
+    <comment ref="D10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +178,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="2" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ANa</author>
+    <author>MinhNN</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,30 +212,6 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">MinhNN:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>row trống thì bỏ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t>MinhNN:</t>
         </r>
         <r>
@@ -234,100 +219,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Mình làm sơ cua, nên ko thể đảm bảo tỷ lệ coverage code được, case nào ko tích thì bỏ.
-Case này null đúng ra là expect exception.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nguyen Hoang Anh</author>
-    <author>ANa</author>
-    <author>MinhNN</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MinhNN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-tuong tu cmt ben getCourses</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MinhNN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-expect exception</t>
+Precondition chung trong service layer nay la Application Context duoc initialized. Minh ko can dieu kien connect vi chi test service layer thoi</t>
         </r>
       </text>
     </comment>
@@ -339,7 +234,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MinhNN</author>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
@@ -367,47 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MinhNN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-thieu
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="2" shapeId="0">
+    <comment ref="C9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,30 +298,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MinhNN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-expect no exception</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -475,27 +305,11 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
     <author>MinhNN</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="2" shapeId="0">
+    <comment ref="D19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
   <si>
     <r>
       <rPr>
@@ -860,9 +674,6 @@
     <t>UTCID04</t>
   </si>
   <si>
-    <t>Can connect with server</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -874,9 +685,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>"success"</t>
   </si>
   <si>
     <r>
@@ -927,15 +735,8 @@
     <t xml:space="preserve">         </t>
   </si>
   <si>
-    <t xml:space="preserve">Precondition </t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>Return</t>
     <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Brief description about requirements which are tested in this function&gt;</t>
   </si>
   <si>
     <r>
@@ -990,17 +791,6 @@
         <family val="2"/>
       </rPr>
       <t>漏れた項目数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>テスト要求</t>
     </r>
   </si>
   <si>
@@ -1040,9 +830,6 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>Log message</t>
-  </si>
-  <si>
     <t>Function3</t>
   </si>
   <si>
@@ -1050,17 +837,6 @@
   </si>
   <si>
     <t>Guideline to make and understand Unit Test Case</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>標準のテスト項目数/KLOC</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 Condition and confirmation of Test cases.</t>
@@ -1432,9 +1208,6 @@
     <t>findLearnerExams</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>learnerId</t>
   </si>
   <si>
@@ -1508,9 +1281,6 @@
     <t>漏れた項目数</t>
   </si>
   <si>
-    <t>testing result of getCousres() function</t>
-  </si>
-  <si>
     <t>ステップ数</t>
   </si>
   <si>
@@ -1532,9 +1302,6 @@
     <t>valid Id</t>
   </si>
   <si>
-    <t>Testing the result of findLearnerExams() with each case of learnerId</t>
-  </si>
-  <si>
     <t>Id of learner have 0 exam</t>
   </si>
   <si>
@@ -1542,6 +1309,18 @@
   </si>
   <si>
     <t>Veazy_Courses_And_ Exam_Unit_Test_Case_v1.0</t>
+  </si>
+  <si>
+    <t>Application Context Initialized</t>
+  </si>
+  <si>
+    <t>標準のテスト項目数/KLOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exception</t>
+  </si>
+  <si>
+    <t>exception</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +1975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -3053,34 +2832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3446,7 +3197,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3667,17 +3418,11 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
@@ -3807,9 +3552,6 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="30" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4016,58 +3758,55 @@
     <xf numFmtId="0" fontId="27" fillId="32" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="26" borderId="88" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="26" borderId="86" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="26" borderId="89" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="26" borderId="87" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="88" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="88" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="26" borderId="88" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="89" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="90" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="90" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="26" borderId="90" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="24" borderId="91" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="91" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="92" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="24" borderId="93" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="94" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="92" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="44" fillId="29" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4080,7 +3819,7 @@
     <xf numFmtId="0" fontId="57" fillId="32" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="57" fillId="26" borderId="89" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="57" fillId="26" borderId="87" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4089,6 +3828,8 @@
     <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="36" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="39" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -4126,7 +3867,7 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="56" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="24" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4165,105 +3906,99 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="76" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="74" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="75" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="80" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4300,7 +4035,7 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="81" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4309,61 +4044,100 @@
     <xf numFmtId="49" fontId="38" fillId="30" borderId="43" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="82" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="36" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="68" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="30" borderId="84" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="36" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="81" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="82" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="30" borderId="85" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="87" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="31" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4372,9 +4146,30 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="59" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4390,69 +4185,8 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="36" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4680,9 +4414,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4712,7 +4444,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5136,7 +4868,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5390,9 +5122,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5419,7 +5149,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5847,7 +5577,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6380,7 +6110,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="53" customFormat="1" ht="22.5">
       <c r="A1" s="52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="53" customFormat="1" ht="22.5">
@@ -6388,37 +6118,37 @@
     </row>
     <row r="3" spans="1:1" s="55" customFormat="1" ht="18">
       <c r="A3" s="54" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="38.25">
       <c r="A6" s="58" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="29.25" customHeight="1">
       <c r="A7" s="58" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1">
       <c r="A8" s="59" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="61" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="60" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" customHeight="1">
@@ -6426,27 +6156,27 @@
     </row>
     <row r="11" spans="1:1" s="55" customFormat="1" ht="18">
       <c r="A11" s="54" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="64" customFormat="1" ht="15">
       <c r="A12" s="63" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="25.5">
       <c r="A13" s="56" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="56" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="58" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -6454,136 +6184,136 @@
     </row>
     <row r="17" spans="1:4" s="64" customFormat="1" ht="15">
       <c r="A17" s="63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="56" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B18" s="62"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="63" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B20" s="62"/>
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="58" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B22" s="65"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="56" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B23" s="62"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="56" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B24" s="62"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="56" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B25" s="62"/>
       <c r="C25" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="56" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B27" s="62"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="56" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="56" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="56" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="63" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="56" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B35" s="62"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="56" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B36" s="62"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="56" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="38.25">
       <c r="A39" s="59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B39" s="62"/>
     </row>
@@ -6593,42 +6323,42 @@
     </row>
     <row r="41" spans="1:2" s="64" customFormat="1" ht="15">
       <c r="A41" s="63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="56" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="56" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="56" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="56" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6646,198 +6376,198 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="220" customWidth="1"/>
-    <col min="2" max="2" width="10" style="195" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="195" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="195" customWidth="1"/>
-    <col min="5" max="5" width="38" style="195" customWidth="1"/>
-    <col min="6" max="6" width="48.25" style="195" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="195"/>
+    <col min="1" max="1" width="21.375" style="217" customWidth="1"/>
+    <col min="2" max="2" width="10" style="192" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="192" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="192" customWidth="1"/>
+    <col min="5" max="5" width="38" style="192" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="192" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="192"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="192" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A2" s="191"/>
-      <c r="B2" s="249" t="s">
+    <row r="2" spans="1:6" s="189" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A2" s="188"/>
+      <c r="B2" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="193"/>
-      <c r="B3" s="194"/>
-      <c r="E3" s="196"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="E3" s="193"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="197" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="250" t="s">
+      <c r="A4" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="248" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="196" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="249" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="196"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="251" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="238">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A7" s="250"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="197"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="192"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="205" customFormat="1" ht="15">
+      <c r="A11" s="218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="240" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="241" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="198" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="199" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="198" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="251" t="s">
+      <c r="F11" s="220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="210" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A12" s="239">
+        <v>42583</v>
+      </c>
+      <c r="B12" s="206" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="207" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="207" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="197" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="199"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="252" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="253" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="242">
-        <v>42583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="252"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="198" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="200"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="201"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="195"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="207" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="208" customFormat="1" ht="15">
-      <c r="A11" s="221" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="244" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="245" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="222" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="245" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="223" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="213" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="243">
-        <v>42583</v>
-      </c>
-      <c r="B12" s="209" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="210" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="210" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="211" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="212" t="s">
+      <c r="F12" s="209" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="213" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="214"/>
-      <c r="B13" s="209"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="215"/>
-    </row>
-    <row r="14" spans="1:6" s="213" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="214"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="215"/>
-    </row>
-    <row r="15" spans="1:6" s="213" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="214"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="215"/>
-    </row>
-    <row r="16" spans="1:6" s="213" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A16" s="214"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="215"/>
-    </row>
-    <row r="17" spans="1:6" s="213" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="214"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="215"/>
-    </row>
-    <row r="18" spans="1:6" s="213" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="216"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="219"/>
+    <row r="13" spans="1:6" s="210" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="211"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="212"/>
+    </row>
+    <row r="14" spans="1:6" s="210" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="211"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="212"/>
+    </row>
+    <row r="15" spans="1:6" s="210" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="211"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="212"/>
+    </row>
+    <row r="16" spans="1:6" s="210" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A16" s="211"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="212"/>
+    </row>
+    <row r="17" spans="1:6" s="210" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="211"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="212"/>
+    </row>
+    <row r="18" spans="1:6" s="210" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A18" s="213"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6862,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F11:F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6897,42 +6627,42 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="255"/>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="256" t="str">
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="254" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="258"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="256" t="str">
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="254" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="258"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="256"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="262" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="264"/>
+      <c r="A6" s="260" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="262"/>
       <c r="E6" s="46">
         <v>100</v>
       </c>
@@ -6941,18 +6671,18 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="254" t="s">
+      <c r="A7" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="254"/>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="259" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="257" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="259"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6975,140 +6705,140 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="246" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="234" t="s">
+      <c r="B10" s="242" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="235" t="s">
+      <c r="D10" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="236" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="237" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="238" t="s">
+      <c r="E10" s="232" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="233" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="239" t="s">
+      <c r="H10" s="235" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5">
-      <c r="A11" s="240">
+      <c r="A11" s="236">
         <v>1</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="248" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="F11" s="244" t="s">
+        <v>77</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="241"/>
+      <c r="H11" s="237"/>
     </row>
     <row r="12" spans="1:8" ht="13.5">
-      <c r="A12" s="240">
+      <c r="A12" s="236">
         <v>2</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="248" t="s">
+      <c r="F12" s="244" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="241"/>
+      <c r="H12" s="237"/>
     </row>
     <row r="13" spans="1:8" ht="13.5">
-      <c r="A13" s="240">
+      <c r="A13" s="236">
         <v>3</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="248" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="F13" s="244" t="s">
+        <v>63</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="241"/>
+      <c r="H13" s="237"/>
     </row>
     <row r="14" spans="1:8" ht="13.5">
-      <c r="A14" s="240">
+      <c r="A14" s="236">
         <v>4</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="248" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="F14" s="244" t="s">
+        <v>134</v>
       </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="241"/>
+      <c r="H14" s="237"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="240"/>
+      <c r="A15" s="236"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="241"/>
+      <c r="H15" s="237"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="240"/>
+      <c r="A16" s="236"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="241"/>
+      <c r="H16" s="237"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="240"/>
+      <c r="A17" s="236"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="241"/>
+      <c r="H17" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7139,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7157,17 +6887,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="23"/>
@@ -7182,74 +6912,74 @@
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="267" t="str">
+        <v>112</v>
+      </c>
+      <c r="B4" s="265" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="267"/>
-      <c r="D4" s="268" t="s">
+      <c r="C4" s="265"/>
+      <c r="D4" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="268"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="271"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="269"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="267" t="str">
+      <c r="B5" s="265" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="267"/>
-      <c r="D5" s="268" t="s">
+      <c r="C5" s="265"/>
+      <c r="D5" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="268"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="271"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
+      <c r="I5" s="269"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="267" t="str">
+      <c r="B6" s="265" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>Veazy_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="267"/>
-      <c r="D6" s="268" t="s">
+      <c r="C6" s="265"/>
+      <c r="D6" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="268"/>
-      <c r="F6" s="272" t="s">
+      <c r="E6" s="266"/>
+      <c r="F6" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="274"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="272"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="265" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="26"/>
@@ -7289,7 +7019,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>24</v>
@@ -7301,13 +7031,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>27</v>
@@ -7317,35 +7047,35 @@
       <c r="A12" s="34">
         <v>1</v>
       </c>
-      <c r="B12" s="248" t="s">
-        <v>84</v>
+      <c r="B12" s="244" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="35">
-        <f>getCourses!A7</f>
+        <f>getCourses!A6</f>
         <v>1</v>
       </c>
       <c r="D12" s="35">
-        <f>getCourses!C7</f>
+        <f>getCourses!C6</f>
         <v>0</v>
       </c>
       <c r="E12" s="35">
-        <f>getCourses!F7</f>
+        <f>getCourses!F6</f>
         <v>0</v>
       </c>
       <c r="F12" s="36">
-        <f>getCourses!L7</f>
+        <f>getCourses!L6</f>
         <v>1</v>
       </c>
       <c r="G12" s="35">
-        <f>getCourses!M7</f>
+        <f>getCourses!M6</f>
         <v>0</v>
       </c>
       <c r="H12" s="35">
-        <f>getCourses!N7</f>
+        <f>getCourses!N6</f>
         <v>0</v>
       </c>
       <c r="I12" s="35">
-        <f>getCourses!O7</f>
+        <f>getCourses!O6</f>
         <v>1</v>
       </c>
     </row>
@@ -7353,35 +7083,35 @@
       <c r="A13" s="34">
         <v>2</v>
       </c>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="244" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="35">
-        <f>findLearnerExams!A7</f>
+        <f>findLearnerExams!A6</f>
         <v>4</v>
       </c>
       <c r="D13" s="35">
-        <f>findLearnerExams!C7</f>
+        <f>findLearnerExams!C6</f>
         <v>0</v>
       </c>
       <c r="E13" s="35">
-        <f>findLearnerExams!F7</f>
+        <f>findLearnerExams!F6</f>
         <v>0</v>
       </c>
       <c r="F13" s="36">
-        <f>findLearnerExams!L7</f>
+        <f>findLearnerExams!L6</f>
         <v>2</v>
       </c>
       <c r="G13" s="35">
-        <f>findLearnerExams!M7</f>
+        <f>findLearnerExams!M6</f>
         <v>0</v>
       </c>
       <c r="H13" s="35">
-        <f>findLearnerExams!N7</f>
+        <f>findLearnerExams!N6</f>
         <v>0</v>
       </c>
       <c r="I13" s="35">
-        <f>findLearnerExams!O7</f>
+        <f>findLearnerExams!O6</f>
         <v>4</v>
       </c>
     </row>
@@ -7389,71 +7119,71 @@
       <c r="A14" s="34">
         <v>3</v>
       </c>
-      <c r="B14" s="248" t="s">
-        <v>69</v>
+      <c r="B14" s="244" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="35">
-        <f>saveExam!A7</f>
+        <f>saveExam!A6</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="35">
+        <f>saveExam!C6</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <f>saveExam!F6</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
+        <f>saveExam!L6</f>
         <v>1</v>
       </c>
-      <c r="D14" s="35">
-        <f>saveExam!C7</f>
+      <c r="G14" s="35">
+        <f>saveExam!M6</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <f>saveExam!N6</f>
         <v>0</v>
       </c>
-      <c r="E14" s="35">
-        <f>saveExam!F7</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="36">
-        <f>saveExam!L7</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="35">
-        <f>saveExam!M7</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="35">
-        <f>saveExam!N7</f>
-        <v>0</v>
-      </c>
       <c r="I14" s="35">
-        <f>saveExam!O7</f>
-        <v>1</v>
+        <f>saveExam!O6</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5">
       <c r="A15" s="34">
         <v>4</v>
       </c>
-      <c r="B15" s="248" t="s">
-        <v>142</v>
+      <c r="B15" s="244" t="s">
+        <v>134</v>
       </c>
       <c r="C15" s="35">
-        <f>findExamById!A7</f>
+        <f>findExamById!A6</f>
         <v>3</v>
       </c>
       <c r="D15" s="35">
-        <f>findExamById!C7</f>
+        <f>findExamById!C6</f>
         <v>0</v>
       </c>
       <c r="E15" s="35">
-        <f>findExamById!F7</f>
+        <f>findExamById!F6</f>
         <v>0</v>
       </c>
       <c r="F15" s="35">
-        <f>findExamById!L7</f>
+        <f>findExamById!L6</f>
         <v>1</v>
       </c>
       <c r="G15" s="35">
-        <f>findExamById!M7</f>
+        <f>findExamById!M6</f>
         <v>2</v>
       </c>
       <c r="H15" s="35">
-        <f>findExamById!N7</f>
+        <f>findExamById!N6</f>
         <v>0</v>
       </c>
       <c r="I15" s="35">
-        <f>findExamById!O7</f>
+        <f>findExamById!O6</f>
         <v>3</v>
       </c>
     </row>
@@ -7497,7 +7227,7 @@
       </c>
       <c r="C19" s="38">
         <f t="shared" ref="C19:I19" si="0">SUM(C10:C18)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="38">
         <f t="shared" si="0"/>
@@ -7513,7 +7243,7 @@
       </c>
       <c r="G19" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="0"/>
@@ -7521,7 +7251,7 @@
       </c>
       <c r="I19" s="38">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7537,8 +7267,8 @@
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="28"/>
-      <c r="B21" s="228" t="s">
-        <v>126</v>
+      <c r="B21" s="224" t="s">
+        <v>119</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="51">
@@ -7556,7 +7286,7 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="28"/>
       <c r="B22" s="67" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="51">
@@ -7573,12 +7303,12 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="B23" s="67" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="51">
         <f>F19*100/I19</f>
-        <v>55.555555555555557</v>
+        <v>50</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>29</v>
@@ -7586,11 +7316,11 @@
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="B24" s="67" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D24" s="51">
         <f>G19*100/I19</f>
-        <v>22.222222222222221</v>
+        <v>30</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>29</v>
@@ -7641,7 +7371,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
@@ -7668,59 +7398,59 @@
       <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="str">
+      <c r="A2" s="279" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="280"/>
+      <c r="C2" s="281" t="str">
         <f>機能一覧!E11</f>
         <v>Function1</v>
       </c>
-      <c r="D2" s="278"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="280" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="308" t="str">
+      <c r="D2" s="282"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="284" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="285"/>
+      <c r="K2" s="285"/>
+      <c r="L2" s="304" t="str">
         <f>機能一覧!D11</f>
         <v>getCourses</v>
       </c>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="310"/>
+      <c r="M2" s="305"/>
+      <c r="N2" s="305"/>
+      <c r="O2" s="305"/>
+      <c r="P2" s="305"/>
+      <c r="Q2" s="305"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="305"/>
+      <c r="T2" s="306"/>
       <c r="V2" s="72"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="288" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="296" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="297"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="313" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
+      <c r="A3" s="290" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="291"/>
+      <c r="C3" s="298" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="299"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="309" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
@@ -7729,317 +7459,261 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="290" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="291">
-        <v>100</v>
-      </c>
-      <c r="D4" s="292"/>
+      <c r="A4" s="292" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="291"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="294"/>
       <c r="E4" s="75"/>
-      <c r="F4" s="313" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="315"/>
-      <c r="L4" s="316">
-        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
-        <v>9</v>
-      </c>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
-      <c r="Q4" s="317"/>
-      <c r="R4" s="317"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="318"/>
+      <c r="F4" s="309" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="312">
+        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
+        <v>-1</v>
+      </c>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="313"/>
+      <c r="S4" s="313"/>
+      <c r="T4" s="314"/>
       <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="301" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="302"/>
+      <c r="C5" s="307" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="277"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="307" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="277" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="276" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="278"/>
+      <c r="V5" s="72"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="289">
+        <f>COUNTIF(F14:HC14,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="288"/>
+      <c r="C6" s="286">
+        <f>COUNTIF(F14:HC14,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="274"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="286">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="76">
+        <f>COUNTIF(E13:HC13,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="76">
+        <f>COUNTIF(E13:HC13,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="76">
+        <f>COUNTIF(E13:HC13,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="273">
+        <f>COUNTA(E8:HF8)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="274"/>
+      <c r="S6" s="274"/>
+      <c r="T6" s="275"/>
+      <c r="U6" s="77"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="175" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="178"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A10" s="109"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="179"/>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="289"/>
-      <c r="C5" s="301" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="301"/>
-      <c r="R5" s="301"/>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="299" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="311" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="303"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="311" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="303" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="306" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="307"/>
-      <c r="V6" s="72"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="287">
-        <f>COUNTIF(F18:HC18,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="283">
-        <f>COUNTIF(F18:HC18,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="283">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="76">
-        <f>COUNTIF(E17:HC17,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="76">
-        <f>COUNTIF(E17:HC17,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="76">
-        <f>COUNTIF(E17:HC17,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="304">
-        <f>COUNTA(E9:HF9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="284"/>
-      <c r="Q7" s="284"/>
-      <c r="R7" s="284"/>
-      <c r="S7" s="284"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="77"/>
-    </row>
-    <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="186"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="190" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A10" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="178" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="181"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="182"/>
-      <c r="H11" s="72"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="178"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="111"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="182"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="111"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="182"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="243" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A13" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="297" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="180" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="181"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="303" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="181" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="247" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="182"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A17" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="295" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="295"/>
-      <c r="D17" s="295"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="183" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="282" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="295" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="184" t="s">
+      <c r="C15" s="295"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="104">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="11.25" thickBot="1">
+      <c r="A16" s="174"/>
+      <c r="B16" s="296" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A19" s="113"/>
-      <c r="B19" s="293" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="293"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="106">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" thickBot="1">
-      <c r="A20" s="177"/>
-      <c r="B20" s="294" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="294"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" thickTop="1">
-      <c r="A21" s="185"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+    </row>
+    <row r="17" spans="1:1" ht="11.25" thickTop="1">
+      <c r="A17" s="182"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F6:K6"/>
+  <mergeCells count="25">
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="O6:T6"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F12">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -8054,10 +7728,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8078,62 +7752,62 @@
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="81"/>
-      <c r="B1" s="170"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="167"/>
+      <c r="D1" s="168"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="320" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="322" t="str">
+      <c r="A2" s="316" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="317"/>
+      <c r="C2" s="318" t="str">
         <f>機能一覧!E12</f>
         <v>Function2</v>
       </c>
-      <c r="D2" s="324"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="321" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="322" t="str">
+      <c r="D2" s="320"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="317" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="318" t="str">
         <f>機能一覧!D12</f>
         <v>findLearnerExams</v>
       </c>
-      <c r="M2" s="322"/>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="322"/>
-      <c r="R2" s="322"/>
-      <c r="S2" s="322"/>
-      <c r="T2" s="323"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="319"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="330" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="331"/>
-      <c r="C3" s="296" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="297"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="326" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
+      <c r="A3" s="326" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="327"/>
+      <c r="C3" s="298" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="299"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="322" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
@@ -8142,368 +7816,365 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="290" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="291"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="325" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="312">
+        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
+        <v>-4</v>
+      </c>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="313"/>
+      <c r="S4" s="313"/>
+      <c r="T4" s="314"/>
+      <c r="V4" s="72"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="328" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="302"/>
+      <c r="C5" s="321" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="277"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="321" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="277" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="276" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="278"/>
+      <c r="V5" s="72"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="289">
+        <f>COUNTIF(F23:I23,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="288"/>
+      <c r="C6" s="286">
+        <f>COUNTIF(F23:I23,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="274"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="286">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="76">
+        <f>COUNTIF(F22:I22,"N")</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="76">
+        <f>COUNTIF(E32:HQ32,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="76">
+        <f>COUNTIF(E32:HQ32,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="273">
+        <f>COUNTA(E8:N8)</f>
+        <v>4</v>
+      </c>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="274"/>
+      <c r="S6" s="274"/>
+      <c r="T6" s="275"/>
+      <c r="U6" s="77"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="43.5" thickTop="1" thickBot="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="173" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="291">
-        <v>300</v>
-      </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="329" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="315"/>
-      <c r="L4" s="316">
-        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
-        <v>26</v>
-      </c>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
-      <c r="Q4" s="317"/>
-      <c r="R4" s="317"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="318"/>
-      <c r="V4" s="72"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="288" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="289"/>
-      <c r="C5" s="301" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="301"/>
-      <c r="R5" s="301"/>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="332" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="325" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="303"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="325" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="303" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="306" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="307"/>
-      <c r="V6" s="72"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="287">
-        <f>COUNTIF(F24:I24,"P")</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="283">
-        <f>COUNTIF(F24:I24,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="283">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="76">
-        <f>COUNTIF(F23:I23,"N")</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="76">
-        <f>COUNTIF(E33:HQ33,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="76">
-        <f>COUNTIF(E33:HQ33,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="304">
-        <f>COUNTA(E9:N9)</f>
-        <v>4</v>
-      </c>
-      <c r="P7" s="284"/>
-      <c r="Q7" s="284"/>
-      <c r="R7" s="284"/>
-      <c r="S7" s="284"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="77"/>
-    </row>
-    <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:22" ht="43.5" thickTop="1" thickBot="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="176" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="176" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A10" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="109"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
+      <c r="D10" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="228"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C11" s="83"/>
-      <c r="D11" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="K11" s="72"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="84" t="s">
-        <v>133</v>
+      <c r="D12" s="225" t="s">
+        <v>156</v>
       </c>
       <c r="E12" s="87"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="F12" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="K13" s="72"/>
+      <c r="D13" s="225" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="228"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="111"/>
-      <c r="B14" s="82" t="s">
-        <v>134</v>
-      </c>
+      <c r="A14" s="109"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="111"/>
+      <c r="D14" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A15" s="109"/>
       <c r="B15" s="82"/>
       <c r="C15" s="83"/>
-      <c r="D15" s="229" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
+      <c r="D15" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="111"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="229" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="232"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A16" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84" t="s">
+      <c r="B17" s="97"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="96"/>
+      <c r="F17" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A18" s="111"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="227"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="111"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="86"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84" t="s">
+      <c r="E19" s="99"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A20" s="111"/>
+      <c r="B20" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="245"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A21" s="111"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="246"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A22" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="90"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="113"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="231"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="113"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A23" s="112" t="s">
+      <c r="B22" s="297" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="297"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="295" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
+      <c r="G22" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A23" s="111"/>
+      <c r="B23" s="303" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
       <c r="E23" s="102"/>
       <c r="F23" s="103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" s="103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23" s="103" t="s">
         <v>44</v>
@@ -8512,108 +8183,85 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="113"/>
-      <c r="B24" s="282" t="s">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A24" s="111"/>
+      <c r="B24" s="295" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105" t="s">
+      <c r="C24" s="295"/>
+      <c r="D24" s="295"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="104">
+        <v>39139</v>
+      </c>
+      <c r="G24" s="104">
+        <v>39139</v>
+      </c>
+      <c r="H24" s="104">
+        <v>39140</v>
+      </c>
+      <c r="I24" s="104">
+        <v>39141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A25" s="174"/>
+      <c r="B25" s="296" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="105" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="113"/>
-      <c r="B25" s="293" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="293"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="106">
-        <v>39139</v>
-      </c>
-      <c r="G25" s="106">
-        <v>39139</v>
-      </c>
-      <c r="H25" s="106">
-        <v>39140</v>
-      </c>
-      <c r="I25" s="106">
-        <v>39141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="177"/>
-      <c r="B26" s="294" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="70"/>
-    </row>
+      <c r="C25" s="296"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A26" s="78"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="70"/>
+    </row>
+    <row r="35" ht="10.5"/>
     <row r="36" ht="10.5"/>
-    <row r="37" ht="10.5"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="25">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:I23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:I22">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:I23">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:I21">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -8628,480 +8276,434 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="116" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="124" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="116" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="117" customWidth="1"/>
-    <col min="5" max="5" width="1.75" style="116" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="116" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="116" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="116" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="116"/>
+    <col min="1" max="1" width="6.75" style="114" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="122" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="114" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="115" customWidth="1"/>
+    <col min="5" max="5" width="1.75" style="114" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="114" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="114" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="114" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="320" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="322" t="str">
+      <c r="A2" s="316" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="317"/>
+      <c r="C2" s="318" t="str">
         <f>機能一覧!E13</f>
         <v>Function3</v>
       </c>
-      <c r="D2" s="324"/>
-      <c r="F2" s="321" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="333" t="str">
+      <c r="D2" s="320"/>
+      <c r="F2" s="317" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="346" t="str">
         <f>機能一覧!D13</f>
         <v>saveExam</v>
       </c>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="335"/>
+      <c r="M2" s="347"/>
+      <c r="N2" s="347"/>
+      <c r="O2" s="347"/>
+      <c r="P2" s="347"/>
+      <c r="Q2" s="347"/>
+      <c r="R2" s="347"/>
+      <c r="S2" s="347"/>
+      <c r="T2" s="348"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="343" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="344"/>
+      <c r="C3" s="355" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="356"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="340" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="356"/>
+      <c r="M3" s="356"/>
+      <c r="N3" s="356"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A4" s="345" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="344"/>
+      <c r="C4" s="364"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="350" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="361">
+        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
+        <v>-2</v>
+      </c>
+      <c r="M4" s="362"/>
+      <c r="N4" s="362"/>
+      <c r="O4" s="362"/>
+      <c r="P4" s="362"/>
+      <c r="Q4" s="362"/>
+      <c r="R4" s="362"/>
+      <c r="S4" s="362"/>
+      <c r="T4" s="363"/>
+      <c r="V4" s="119"/>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A5" s="358" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="359"/>
+      <c r="C5" s="337" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="338"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="337" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="361" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="344"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="339" t="s">
+      <c r="M5" s="338"/>
+      <c r="N5" s="338"/>
+      <c r="O5" s="351" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="338"/>
+      <c r="Q5" s="338"/>
+      <c r="R5" s="338"/>
+      <c r="S5" s="338"/>
+      <c r="T5" s="352"/>
+      <c r="V5" s="119"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="336">
+        <f>COUNTIF(F20:HQ31,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="335"/>
+      <c r="C6" s="332">
+        <f>COUNTIF(F31:HQ31,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="330"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="332">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="120">
+        <f>COUNTIF(F19:HQ30,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="120">
+        <f>COUNTIF(F19:Y19,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="120">
+        <f>COUNTIF(F19:AA19,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="329">
+        <f>COUNTA(E8:HT8)</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="330"/>
+      <c r="R6" s="330"/>
+      <c r="S6" s="330"/>
+      <c r="T6" s="331"/>
+      <c r="U6" s="121"/>
+    </row>
+    <row r="7" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="156"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="123"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="112"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A9" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="357" t="s">
+      <c r="B9" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="348">
-        <v>300</v>
-      </c>
-      <c r="D4" s="349"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="370" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="341"/>
-      <c r="L4" s="345">
-        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
-        <v>29</v>
-      </c>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="346"/>
-      <c r="T4" s="347"/>
-      <c r="V4" s="121"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="357" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="365" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="366"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="366"/>
-      <c r="I5" s="366"/>
-      <c r="J5" s="366"/>
-      <c r="K5" s="366"/>
-      <c r="L5" s="365"/>
-      <c r="M5" s="365"/>
-      <c r="N5" s="365"/>
-      <c r="O5" s="365"/>
-      <c r="P5" s="365"/>
-      <c r="Q5" s="365"/>
-      <c r="R5" s="365"/>
-      <c r="S5" s="365"/>
-      <c r="T5" s="365"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="363" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="364"/>
-      <c r="C6" s="336" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="337"/>
-      <c r="E6" s="356"/>
-      <c r="F6" s="336" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="338"/>
-      <c r="L6" s="337" t="s">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A10" s="162"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="130"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="V10" s="119"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A11" s="162"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A12" s="162"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A13" s="162"/>
+      <c r="B13" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A14" s="162"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="223"/>
+      <c r="F14" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="129"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A15" s="162"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="132"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" s="119"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A16" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="342" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="337"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="337"/>
-      <c r="S6" s="337"/>
-      <c r="T6" s="343"/>
-      <c r="V6" s="121"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="355">
-        <f>COUNTIF(F26:HQ37,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="354"/>
-      <c r="C7" s="352">
-        <f>COUNTIF(F37:HQ37,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="353"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="352">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="353"/>
-      <c r="H7" s="353"/>
-      <c r="I7" s="353"/>
-      <c r="J7" s="353"/>
-      <c r="K7" s="369"/>
-      <c r="L7" s="122">
-        <f>COUNTIF(F25:HQ36,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="122">
-        <f>COUNTIF(F25:Y25,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="122">
-        <f>COUNTIF(F25:AA25,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="367">
-        <f>COUNTA(E9:HT9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="353"/>
-      <c r="Q7" s="353"/>
-      <c r="R7" s="353"/>
-      <c r="S7" s="353"/>
-      <c r="T7" s="368"/>
-      <c r="U7" s="123"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="163" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="125"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="114"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="164" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="131"/>
-      <c r="V11" s="121"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="131"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="131"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="131"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="227"/>
-      <c r="F15" s="131" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="131"/>
-      <c r="W16" s="121"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="166" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="167"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="131"/>
-      <c r="U18" s="135"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="167"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="131"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="131"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="131"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="167"/>
-      <c r="B22" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="131"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="167"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="143" t="s">
+      <c r="C16" s="142"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A17" s="164"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="143"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A18" s="164"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A19" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="354" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="131"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="151"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="166" t="s">
+      <c r="C19" s="354"/>
+      <c r="D19" s="354"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="360" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="360"/>
-      <c r="D25" s="360"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="153" t="s">
+      <c r="G19" s="150" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="168"/>
-      <c r="B26" s="350" t="s">
+    <row r="20" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A20" s="165"/>
+      <c r="B20" s="334" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="334"/>
+      <c r="D20" s="334"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="152" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="165"/>
+      <c r="B21" s="360" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="350"/>
-      <c r="D26" s="350"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155" t="s">
+      <c r="C21" s="360"/>
+      <c r="D21" s="360"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="153">
+        <v>39139</v>
+      </c>
+      <c r="G21" s="153">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A22" s="166"/>
+      <c r="B22" s="353" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="168"/>
-      <c r="B27" s="351" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="351"/>
-      <c r="D27" s="351"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="156">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="169"/>
-      <c r="B28" s="359" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="359"/>
-      <c r="D28" s="359"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A29" s="124"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="116"/>
-    </row>
-    <row r="39" ht="10.5"/>
-    <row r="40" ht="10.5"/>
+      <c r="C22" s="353"/>
+      <c r="D22" s="353"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A23" s="122"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="114"/>
+    </row>
+    <row r="33" s="114" customFormat="1" ht="10.5"/>
+    <row r="34" s="114" customFormat="1" ht="10.5"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B25:D25"/>
+  <mergeCells count="25">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="F6:K6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F5:K5"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="O5:T5"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G17 F18:G18">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -9116,469 +8718,469 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="116" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="124" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="116" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="117" customWidth="1"/>
-    <col min="5" max="5" width="1.75" style="116" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="116" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="116" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="116" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="116"/>
+    <col min="1" max="1" width="6.75" style="114" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="122" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="114" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="115" customWidth="1"/>
+    <col min="5" max="5" width="1.75" style="114" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="114" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.875" style="114" customWidth="1"/>
+    <col min="20" max="20" width="2.875" style="114" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="114" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="316" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="317"/>
+      <c r="C2" s="318" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="320"/>
+      <c r="F2" s="317" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="346" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="347"/>
+      <c r="N2" s="347"/>
+      <c r="O2" s="347"/>
+      <c r="P2" s="347"/>
+      <c r="Q2" s="347"/>
+      <c r="R2" s="347"/>
+      <c r="S2" s="347"/>
+      <c r="T2" s="348"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="343" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="344"/>
+      <c r="C3" s="355" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="356"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="340" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="356"/>
+      <c r="M3" s="356"/>
+      <c r="N3" s="356"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A4" s="343" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="344"/>
+      <c r="C4" s="364"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="340" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="322" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="324"/>
-      <c r="F2" s="321" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="333" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="335"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="357" t="s">
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="361">
+        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
+        <v>-3</v>
+      </c>
+      <c r="M4" s="362"/>
+      <c r="N4" s="362"/>
+      <c r="O4" s="362"/>
+      <c r="P4" s="362"/>
+      <c r="Q4" s="362"/>
+      <c r="R4" s="362"/>
+      <c r="S4" s="362"/>
+      <c r="T4" s="363"/>
+      <c r="V4" s="119"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="358" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="359"/>
+      <c r="C5" s="337" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="338"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="337" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="361" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="344"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="339" t="s">
+      <c r="M5" s="338"/>
+      <c r="N5" s="338"/>
+      <c r="O5" s="351" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="338"/>
+      <c r="Q5" s="338"/>
+      <c r="R5" s="338"/>
+      <c r="S5" s="338"/>
+      <c r="T5" s="352"/>
+      <c r="V5" s="119"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="336">
+        <f>COUNTIF(F23:HE23,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="335"/>
+      <c r="C6" s="332">
+        <f>COUNTIF(F23:HE23,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="330"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="332">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="120">
+        <f>COUNTIF(E22:HE22,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="120">
+        <f>COUNTIF(E22:HE22,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="120">
+        <f>COUNTIF(E22:HE22,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="329">
+        <f>COUNTA(E8:HH8)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="330"/>
+      <c r="R6" s="330"/>
+      <c r="S6" s="330"/>
+      <c r="T6" s="331"/>
+      <c r="U6" s="121"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="156"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="112"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-    </row>
-    <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="357" t="s">
+      <c r="B9" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="348">
-        <v>300</v>
-      </c>
-      <c r="D4" s="349"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="339" t="s">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="162"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="130"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="J10" s="119"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="162"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="162"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="162"/>
+      <c r="B13" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="162"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="223"/>
+      <c r="F14" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="K14" s="119"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="162"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="226" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="223"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="129"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A16" s="162"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="223"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="133"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A17" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="341"/>
-      <c r="L4" s="345">
-        <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O7),"N/A")</f>
-        <v>27</v>
-      </c>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="346"/>
-      <c r="T4" s="347"/>
-      <c r="V4" s="121"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="357" t="s">
+      <c r="B17" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="365" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365"/>
-      <c r="F5" s="366"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="366"/>
-      <c r="I5" s="366"/>
-      <c r="J5" s="366"/>
-      <c r="K5" s="366"/>
-      <c r="L5" s="365"/>
-      <c r="M5" s="365"/>
-      <c r="N5" s="365"/>
-      <c r="O5" s="365"/>
-      <c r="P5" s="365"/>
-      <c r="Q5" s="365"/>
-      <c r="R5" s="365"/>
-      <c r="S5" s="365"/>
-      <c r="T5" s="365"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="363" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="364"/>
-      <c r="C6" s="336" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="337"/>
-      <c r="E6" s="356"/>
-      <c r="F6" s="336" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="338"/>
-      <c r="L6" s="337" t="s">
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A18" s="164"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="221"/>
+      <c r="F18" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="164"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="143"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A20" s="164"/>
+      <c r="B20" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="342" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="337"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="337"/>
-      <c r="S6" s="337"/>
-      <c r="T6" s="343"/>
-      <c r="V6" s="121"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="355">
-        <f>COUNTIF(F22:HE22,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="354"/>
-      <c r="C7" s="352">
-        <f>COUNTIF(F22:HE22,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="353"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="352">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="353"/>
-      <c r="H7" s="353"/>
-      <c r="I7" s="353"/>
-      <c r="J7" s="353"/>
-      <c r="K7" s="369"/>
-      <c r="L7" s="122">
-        <f>COUNTIF(E21:HE21,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="122">
-        <f>COUNTIF(E21:HE21,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="122">
-        <f>COUNTIF(E21:HE21,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="367">
-        <f>COUNTA(E9:HH9)</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="353"/>
-      <c r="Q7" s="353"/>
-      <c r="R7" s="353"/>
-      <c r="S7" s="353"/>
-      <c r="T7" s="368"/>
-      <c r="U7" s="123"/>
-    </row>
-    <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="163" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="163" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="114"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A10" s="164" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="J11" s="121"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="227"/>
-      <c r="F15" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="K15" s="121"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="230" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="227"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="131"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="227"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="135"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A18" s="166" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="167"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="225"/>
-      <c r="F19" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="143" t="s">
+      <c r="C20" s="366"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="367"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A21" s="164"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="367"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A22" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="146"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="131" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A21" s="166" t="s">
+      <c r="B22" s="354" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="354"/>
+      <c r="D22" s="354"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="360" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="360"/>
-      <c r="D21" s="360"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="153" t="s">
+      <c r="G22" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="153" t="s">
+      <c r="H22" s="150" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A23" s="165"/>
+      <c r="B23" s="334" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="334"/>
+      <c r="D23" s="334"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="153" t="s">
+      <c r="G23" s="152" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="168"/>
-      <c r="B22" s="350" t="s">
+      <c r="H23" s="152" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A24" s="165"/>
+      <c r="B24" s="360" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="350"/>
-      <c r="D22" s="350"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155" t="s">
+      <c r="C24" s="360"/>
+      <c r="D24" s="360"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="153">
+        <v>39139</v>
+      </c>
+      <c r="G24" s="153">
+        <v>39139</v>
+      </c>
+      <c r="H24" s="153">
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A25" s="166"/>
+      <c r="B25" s="353" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="155" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A23" s="168"/>
-      <c r="B23" s="351" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="351"/>
-      <c r="D23" s="351"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="156">
-        <v>39139</v>
-      </c>
-      <c r="G23" s="156">
-        <v>39139</v>
-      </c>
-      <c r="H23" s="156">
-        <v>39140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="359" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="359"/>
-      <c r="D24" s="359"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="124"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="116"/>
-    </row>
-    <row r="38" ht="10.5"/>
+      <c r="C25" s="353"/>
+      <c r="D25" s="353"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A26" s="122"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="114"/>
+    </row>
     <row r="39" ht="10.5"/>
+    <row r="40" ht="10.5"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="25">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9587,34 +9189,32 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H21">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Courses_And_ Exam_Unit_Test_Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Courses_And_ Exam_Unit_Test_Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" tabRatio="698" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" tabRatio="698" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -672,16 +672,6 @@
   </si>
   <si>
     <t>UTCID04</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>""</t>
-    </r>
   </si>
   <si>
     <t>null</t>
@@ -1221,9 +1211,6 @@
   </si>
   <si>
     <t>ExamModel</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>examModel</t>
@@ -3830,6 +3817,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="36" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="36" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="39" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3906,6 +3895,51 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3918,9 +3952,6 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3972,33 +4003,6 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="30" borderId="61" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4008,21 +4012,6 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="59" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4035,6 +4024,15 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="81" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4065,14 +4063,47 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="59" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -4101,9 +4132,6 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="44" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4146,47 +4174,6 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="66" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="67" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="59" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="36" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4414,7 +4401,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5122,7 +5111,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6110,7 +6101,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="53" customFormat="1" ht="22.5">
       <c r="A1" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="53" customFormat="1" ht="22.5">
@@ -6118,37 +6109,37 @@
     </row>
     <row r="3" spans="1:1" s="55" customFormat="1" ht="18">
       <c r="A3" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="38.25">
       <c r="A6" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="29.25" customHeight="1">
       <c r="A7" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1">
       <c r="A8" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="61" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" customHeight="1">
@@ -6156,27 +6147,27 @@
     </row>
     <row r="11" spans="1:1" s="55" customFormat="1" ht="18">
       <c r="A11" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="64" customFormat="1" ht="15">
       <c r="A12" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="25.5">
       <c r="A13" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -6184,136 +6175,136 @@
     </row>
     <row r="17" spans="1:4" s="64" customFormat="1" ht="15">
       <c r="A17" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="62"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="62"/>
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="65"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="62"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="62"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="62"/>
       <c r="C25" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="62"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="62"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="62"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="38.25">
       <c r="A39" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="62"/>
     </row>
@@ -6323,42 +6314,42 @@
     </row>
     <row r="41" spans="1:2" s="64" customFormat="1" ht="15">
       <c r="A41" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6392,13 +6383,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="189" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="188"/>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="190"/>
@@ -6407,43 +6398,43 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="248" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+        <v>111</v>
+      </c>
+      <c r="B4" s="250" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
       <c r="E4" s="195" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="196" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="251" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="194" t="s">
-        <v>140</v>
-      </c>
       <c r="F5" s="196"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="250" t="s">
+      <c r="A6" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="251" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
+      <c r="B6" s="253" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="253"/>
+      <c r="D6" s="253"/>
       <c r="E6" s="195" t="s">
         <v>6</v>
       </c>
@@ -6452,10 +6443,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
       <c r="E7" s="195" t="s">
         <v>8</v>
       </c>
@@ -6486,16 +6477,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="240" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="241" t="s">
         <v>141</v>
-      </c>
-      <c r="C11" s="241" t="s">
-        <v>143</v>
       </c>
       <c r="D11" s="219" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="241" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="220" t="s">
         <v>12</v>
@@ -6506,16 +6497,16 @@
         <v>42583</v>
       </c>
       <c r="B12" s="206" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="207" t="s">
+      <c r="D12" s="207" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="208" t="s">
         <v>144</v>
-      </c>
-      <c r="D12" s="207" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="208" t="s">
-        <v>146</v>
       </c>
       <c r="F12" s="209" t="s">
         <v>13</v>
@@ -6627,42 +6618,42 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="254" t="str">
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="256"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="258"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="254" t="str">
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="256" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="256"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="258"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="260" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="262"/>
+      <c r="A6" s="262" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="46">
         <v>100</v>
       </c>
@@ -6671,18 +6662,18 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="252" t="s">
+      <c r="A7" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="257" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="258"/>
-      <c r="G7" s="258"/>
-      <c r="H7" s="259"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="259" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="260"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6709,7 +6700,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="242" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="230" t="s">
         <v>17</v>
@@ -6718,10 +6709,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="232" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="233" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="234" t="s">
         <v>19</v>
@@ -6736,16 +6727,16 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="E11" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="244" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="237"/>
@@ -6756,10 +6747,10 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>21</v>
@@ -6776,16 +6767,16 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="244" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="237"/>
@@ -6796,16 +6787,16 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="244" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="237"/>
@@ -6887,17 +6878,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="23"/>
@@ -6912,74 +6903,74 @@
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="265" t="str">
+        <v>111</v>
+      </c>
+      <c r="B4" s="267" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="266" t="s">
+      <c r="C4" s="267"/>
+      <c r="D4" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="266"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="268"/>
-      <c r="I4" s="269"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="271"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="265" t="str">
+      <c r="B5" s="267" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="266" t="s">
+      <c r="C5" s="267"/>
+      <c r="D5" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="269"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="271"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="265" t="str">
+      <c r="B6" s="267" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>Veazy_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="265"/>
-      <c r="D6" s="266" t="s">
+      <c r="C6" s="267"/>
+      <c r="D6" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="266"/>
-      <c r="F6" s="270" t="s">
+      <c r="E6" s="268"/>
+      <c r="F6" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="272"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="274"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="263" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="26"/>
@@ -7019,7 +7010,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>24</v>
@@ -7031,13 +7022,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>27</v>
@@ -7048,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="244" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="35">
         <f>getCourses!A6</f>
@@ -7120,7 +7111,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="244" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="35">
         <f>saveExam!A6</f>
@@ -7156,7 +7147,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="244" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="35">
         <f>findExamById!A6</f>
@@ -7268,7 +7259,7 @@
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="28"/>
       <c r="B21" s="224" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="51">
@@ -7286,7 +7277,7 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="28"/>
       <c r="B22" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="51">
@@ -7303,7 +7294,7 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="B23" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="51">
@@ -7316,7 +7307,7 @@
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="B24" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="51">
         <f>G19*100/I19</f>
@@ -7398,59 +7389,59 @@
       <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="279" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="281" t="str">
+      <c r="A2" s="295" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="296"/>
+      <c r="C2" s="297" t="str">
         <f>機能一覧!E11</f>
         <v>Function1</v>
       </c>
-      <c r="D2" s="282"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="284" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="304" t="str">
+      <c r="D2" s="298"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="300" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="311" t="str">
         <f>機能一覧!D11</f>
         <v>getCourses</v>
       </c>
-      <c r="M2" s="305"/>
-      <c r="N2" s="305"/>
-      <c r="O2" s="305"/>
-      <c r="P2" s="305"/>
-      <c r="Q2" s="305"/>
-      <c r="R2" s="305"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+      <c r="R2" s="312"/>
+      <c r="S2" s="312"/>
+      <c r="T2" s="313"/>
       <c r="V2" s="72"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="290" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="298" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="299"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="309" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="311"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
+      <c r="A3" s="306" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="307"/>
+      <c r="C3" s="282" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="283"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="275" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
@@ -7459,89 +7450,89 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="292" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="294"/>
+      <c r="A4" s="308" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="307"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="310"/>
       <c r="E4" s="75"/>
-      <c r="F4" s="309" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="312">
+      <c r="F4" s="275" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="314">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
         <v>-1</v>
       </c>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
-      <c r="O4" s="313"/>
-      <c r="P4" s="313"/>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="313"/>
-      <c r="S4" s="313"/>
-      <c r="T4" s="314"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="315"/>
+      <c r="P4" s="315"/>
+      <c r="Q4" s="315"/>
+      <c r="R4" s="315"/>
+      <c r="S4" s="315"/>
+      <c r="T4" s="316"/>
       <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="301" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="307" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="277"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="307" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="277" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="276" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="278"/>
+      <c r="A5" s="285" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="286"/>
+      <c r="C5" s="288" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="278"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="288" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="278" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="278"/>
+      <c r="N5" s="278"/>
+      <c r="O5" s="293" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="278"/>
+      <c r="Q5" s="278"/>
+      <c r="R5" s="278"/>
+      <c r="S5" s="278"/>
+      <c r="T5" s="294"/>
       <c r="V5" s="72"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="289">
+      <c r="A6" s="305">
         <f>COUNTIF(F14:HC14,"P")</f>
         <v>1</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="286">
+      <c r="B6" s="304"/>
+      <c r="C6" s="302">
         <f>COUNTIF(F14:HC14,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="274"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="286">
+      <c r="D6" s="291"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="302">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="287"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="291"/>
+      <c r="K6" s="303"/>
       <c r="L6" s="76">
         <f>COUNTIF(E13:HC13,"N")</f>
         <v>1</v>
@@ -7554,15 +7545,15 @@
         <f>COUNTIF(E13:HC13,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="273">
+      <c r="O6" s="290">
         <f>COUNTA(E8:HF8)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="275"/>
+      <c r="P6" s="291"/>
+      <c r="Q6" s="291"/>
+      <c r="R6" s="291"/>
+      <c r="S6" s="291"/>
+      <c r="T6" s="292"/>
       <c r="U6" s="77"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7581,10 +7572,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="175" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="175" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="176"/>
       <c r="D9" s="177"/>
@@ -7596,7 +7587,7 @@
       <c r="B10" s="82"/>
       <c r="C10" s="83"/>
       <c r="D10" s="84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="86"/>
       <c r="F10" s="179"/>
@@ -7604,10 +7595,10 @@
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="89" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>61</v>
       </c>
       <c r="C11" s="90"/>
       <c r="D11" s="91"/>
@@ -7619,46 +7610,46 @@
       <c r="B12" s="97"/>
       <c r="C12" s="94"/>
       <c r="D12" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="243" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
       <c r="A13" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="297" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="297"/>
-      <c r="D13" s="297"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="281"/>
       <c r="E13" s="100"/>
       <c r="F13" s="180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="111"/>
-      <c r="B14" s="303" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="303"/>
-      <c r="D14" s="303"/>
+      <c r="B14" s="287" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
       <c r="E14" s="102"/>
       <c r="F14" s="181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="111"/>
-      <c r="B15" s="295" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
+      <c r="B15" s="279" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="279"/>
+      <c r="D15" s="279"/>
       <c r="E15" s="99"/>
       <c r="F15" s="104">
         <v>39139</v>
@@ -7666,11 +7657,11 @@
     </row>
     <row r="16" spans="1:22" ht="11.25" thickBot="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="296" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="296"/>
-      <c r="D16" s="296"/>
+      <c r="B16" s="280" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="280"/>
+      <c r="D16" s="280"/>
       <c r="E16" s="105"/>
       <c r="F16" s="106"/>
     </row>
@@ -7679,17 +7670,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
@@ -7699,11 +7684,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -7731,7 +7722,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7756,58 +7747,58 @@
       <c r="D1" s="168"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="316" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="318" t="str">
+      <c r="A2" s="321" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="322"/>
+      <c r="C2" s="323" t="str">
         <f>機能一覧!E12</f>
         <v>Function2</v>
       </c>
-      <c r="D2" s="320"/>
+      <c r="D2" s="325"/>
       <c r="E2" s="169"/>
-      <c r="F2" s="317" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="318" t="str">
+      <c r="F2" s="322" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="322"/>
+      <c r="L2" s="323" t="str">
         <f>機能一覧!D12</f>
         <v>findLearnerExams</v>
       </c>
-      <c r="M2" s="318"/>
-      <c r="N2" s="318"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="318"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="319"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="323"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="323"/>
+      <c r="Q2" s="323"/>
+      <c r="R2" s="323"/>
+      <c r="S2" s="323"/>
+      <c r="T2" s="324"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="318" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="319"/>
+      <c r="C3" s="282" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="283"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="327" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="298" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="299"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="322" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="323"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73"/>
@@ -7816,89 +7807,89 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="306" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="307"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="330" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="325" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="312">
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="277"/>
+      <c r="L4" s="314">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
         <v>-4</v>
       </c>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
-      <c r="O4" s="313"/>
-      <c r="P4" s="313"/>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="313"/>
-      <c r="S4" s="313"/>
-      <c r="T4" s="314"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="315"/>
+      <c r="P4" s="315"/>
+      <c r="Q4" s="315"/>
+      <c r="R4" s="315"/>
+      <c r="S4" s="315"/>
+      <c r="T4" s="316"/>
       <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="320" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="286"/>
+      <c r="C5" s="326" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="321" t="s">
+      <c r="D5" s="278"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="326" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="277"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="321" t="s">
+      <c r="G5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="278" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="278"/>
+      <c r="N5" s="278"/>
+      <c r="O5" s="293" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="277" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="276" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
-      <c r="S5" s="277"/>
-      <c r="T5" s="278"/>
+      <c r="P5" s="278"/>
+      <c r="Q5" s="278"/>
+      <c r="R5" s="278"/>
+      <c r="S5" s="278"/>
+      <c r="T5" s="294"/>
       <c r="V5" s="72"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="289">
+      <c r="A6" s="305">
         <f>COUNTIF(F23:I23,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="286">
+      <c r="B6" s="304"/>
+      <c r="C6" s="302">
         <f>COUNTIF(F23:I23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="274"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="286">
+      <c r="D6" s="291"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="302">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="287"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="291"/>
+      <c r="K6" s="303"/>
       <c r="L6" s="76">
         <f>COUNTIF(F22:I22,"N")</f>
         <v>2</v>
@@ -7911,15 +7902,15 @@
         <f>COUNTIF(E32:HQ32,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="273">
+      <c r="O6" s="290">
         <f>COUNTA(E8:N8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="275"/>
+      <c r="P6" s="291"/>
+      <c r="Q6" s="291"/>
+      <c r="R6" s="291"/>
+      <c r="S6" s="291"/>
+      <c r="T6" s="292"/>
       <c r="U6" s="77"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7947,10 +7938,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="175" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="175" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="176"/>
       <c r="D9" s="177"/>
@@ -7965,7 +7956,7 @@
       <c r="B10" s="82"/>
       <c r="C10" s="83"/>
       <c r="D10" s="84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="228"/>
       <c r="F10" s="85"/>
@@ -7976,7 +7967,7 @@
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="109"/>
       <c r="B11" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="83"/>
       <c r="D11" s="84"/>
@@ -7991,11 +7982,11 @@
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
       <c r="D12" s="225" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" s="87"/>
       <c r="F12" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
@@ -8006,12 +7997,12 @@
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
       <c r="D13" s="225" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="228"/>
       <c r="F13" s="85"/>
       <c r="G13" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
@@ -8020,14 +8011,14 @@
       <c r="A14" s="109"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83"/>
-      <c r="D14" s="84" t="s">
-        <v>36</v>
+      <c r="D14" s="84">
+        <v>0</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="85"/>
       <c r="G14" s="85"/>
       <c r="H14" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="85"/>
     </row>
@@ -8036,23 +8027,23 @@
       <c r="B15" s="82"/>
       <c r="C15" s="83"/>
       <c r="D15" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="87"/>
       <c r="F15" s="85"/>
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="I15" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="91"/>
@@ -8067,11 +8058,11 @@
       <c r="B17" s="97"/>
       <c r="C17" s="94"/>
       <c r="D17" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
@@ -8082,12 +8073,12 @@
       <c r="B18" s="97"/>
       <c r="C18" s="94"/>
       <c r="D18" s="95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E18" s="227"/>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
@@ -8097,22 +8088,22 @@
       <c r="B19" s="70"/>
       <c r="C19" s="98"/>
       <c r="D19" s="95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="85"/>
       <c r="G19" s="85"/>
       <c r="H19" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
       <c r="A20" s="111"/>
       <c r="B20" s="97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="245"/>
       <c r="D20" s="91"/>
@@ -8127,69 +8118,69 @@
       <c r="B21" s="89"/>
       <c r="C21" s="245"/>
       <c r="D21" s="91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E21" s="246"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
       <c r="H21" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A22" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="297" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
       <c r="E22" s="100"/>
       <c r="F22" s="101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="111"/>
-      <c r="B23" s="303" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="303"/>
-      <c r="D23" s="303"/>
+      <c r="B23" s="287" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="287"/>
+      <c r="D23" s="287"/>
       <c r="E23" s="102"/>
       <c r="F23" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1">
       <c r="A24" s="111"/>
-      <c r="B24" s="295" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295"/>
+      <c r="B24" s="279" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="279"/>
+      <c r="D24" s="279"/>
       <c r="E24" s="99"/>
       <c r="F24" s="104">
         <v>39139</v>
@@ -8206,11 +8197,11 @@
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="296" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="296"/>
-      <c r="D25" s="296"/>
+      <c r="B25" s="280" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
       <c r="E25" s="105"/>
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
@@ -8227,16 +8218,6 @@
     <row r="36" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="F2:K2"/>
@@ -8252,6 +8233,16 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -8279,7 +8270,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8303,57 +8294,57 @@
       <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="316" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="318" t="str">
+      <c r="A2" s="321" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="322"/>
+      <c r="C2" s="323" t="str">
         <f>機能一覧!E13</f>
         <v>Function3</v>
       </c>
-      <c r="D2" s="320"/>
-      <c r="F2" s="317" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="346" t="str">
+      <c r="D2" s="325"/>
+      <c r="F2" s="322" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="322"/>
+      <c r="L2" s="361" t="str">
         <f>機能一覧!D13</f>
         <v>saveExam</v>
       </c>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="347"/>
-      <c r="S2" s="347"/>
-      <c r="T2" s="348"/>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
+      <c r="R2" s="362"/>
+      <c r="S2" s="362"/>
+      <c r="T2" s="363"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="358" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="359"/>
+      <c r="C3" s="333" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="334"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="355" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="355" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="356"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="340" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
       <c r="O3" s="116"/>
       <c r="P3" s="116"/>
       <c r="Q3" s="116"/>
@@ -8362,89 +8353,89 @@
       <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="345" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="344"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="365"/>
+      <c r="A4" s="360" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="359"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="344"/>
       <c r="E4" s="118"/>
-      <c r="F4" s="350" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="361">
+      <c r="F4" s="365" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="356"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="356"/>
+      <c r="J4" s="356"/>
+      <c r="K4" s="357"/>
+      <c r="L4" s="340">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
         <v>-2</v>
       </c>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="363"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="341"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="341"/>
+      <c r="Q4" s="341"/>
+      <c r="R4" s="341"/>
+      <c r="S4" s="341"/>
+      <c r="T4" s="342"/>
       <c r="V4" s="119"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="336" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="337"/>
+      <c r="C5" s="353" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="337" t="s">
+      <c r="D5" s="338"/>
+      <c r="E5" s="354"/>
+      <c r="F5" s="353" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="338"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="337" t="s">
-        <v>116</v>
       </c>
       <c r="G5" s="338"/>
       <c r="H5" s="338"/>
       <c r="I5" s="338"/>
       <c r="J5" s="338"/>
-      <c r="K5" s="349"/>
+      <c r="K5" s="364"/>
       <c r="L5" s="338" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="338"/>
       <c r="N5" s="338"/>
-      <c r="O5" s="351" t="s">
-        <v>117</v>
+      <c r="O5" s="366" t="s">
+        <v>116</v>
       </c>
       <c r="P5" s="338"/>
       <c r="Q5" s="338"/>
       <c r="R5" s="338"/>
       <c r="S5" s="338"/>
-      <c r="T5" s="352"/>
+      <c r="T5" s="367"/>
       <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="336">
+      <c r="A6" s="352">
         <f>COUNTIF(F20:HQ31,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="335"/>
-      <c r="C6" s="332">
+      <c r="B6" s="351"/>
+      <c r="C6" s="348">
         <f>COUNTIF(F31:HQ31,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="330"/>
-      <c r="E6" s="335"/>
-      <c r="F6" s="332">
+      <c r="D6" s="346"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="348">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="333"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="346"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="349"/>
       <c r="L6" s="120">
         <f>COUNTIF(F19:HQ30,"N")</f>
         <v>1</v>
@@ -8457,15 +8448,15 @@
         <f>COUNTIF(F19:AA19,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="329">
+      <c r="O6" s="345">
         <f>COUNTA(E8:HT8)</f>
         <v>2</v>
       </c>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="330"/>
-      <c r="S6" s="330"/>
-      <c r="T6" s="331"/>
+      <c r="P6" s="346"/>
+      <c r="Q6" s="346"/>
+      <c r="R6" s="346"/>
+      <c r="S6" s="346"/>
+      <c r="T6" s="347"/>
       <c r="U6" s="121"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" thickBot="1"/>
@@ -8487,10 +8478,10 @@
     </row>
     <row r="9" spans="1:23" ht="13.5" customHeight="1">
       <c r="A9" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="125" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
@@ -8503,7 +8494,7 @@
       <c r="B10" s="125"/>
       <c r="C10" s="126"/>
       <c r="D10" s="127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="130"/>
       <c r="F10" s="129"/>
@@ -8531,7 +8522,7 @@
     <row r="13" spans="1:23" ht="13.5" customHeight="1">
       <c r="A13" s="162"/>
       <c r="B13" s="125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
@@ -8544,11 +8535,11 @@
       <c r="B14" s="125"/>
       <c r="C14" s="126"/>
       <c r="D14" s="127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" s="223"/>
       <c r="F14" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="129"/>
     </row>
@@ -8557,21 +8548,21 @@
       <c r="B15" s="125"/>
       <c r="C15" s="126"/>
       <c r="D15" s="141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="132"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W15" s="119"/>
     </row>
     <row r="16" spans="1:23" ht="13.5" customHeight="1">
       <c r="A16" s="163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="142"/>
       <c r="D16" s="141"/>
@@ -8584,12 +8575,12 @@
       <c r="B17" s="139"/>
       <c r="C17" s="142"/>
       <c r="D17" s="141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E17" s="143"/>
       <c r="F17" s="129"/>
       <c r="G17" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
@@ -8603,43 +8594,43 @@
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
       <c r="A19" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="354" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="354"/>
-      <c r="D19" s="354"/>
+      <c r="C19" s="332"/>
+      <c r="D19" s="332"/>
       <c r="E19" s="149"/>
       <c r="F19" s="150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
       <c r="A20" s="165"/>
-      <c r="B20" s="334" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
+      <c r="B20" s="350" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
       <c r="E20" s="151"/>
       <c r="F20" s="152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1">
       <c r="A21" s="165"/>
-      <c r="B21" s="360" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="360"/>
-      <c r="D21" s="360"/>
+      <c r="B21" s="339" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="339"/>
+      <c r="D21" s="339"/>
       <c r="E21" s="143"/>
       <c r="F21" s="153">
         <v>39139</v>
@@ -8650,11 +8641,11 @@
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="166"/>
-      <c r="B22" s="353" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="353"/>
-      <c r="D22" s="353"/>
+      <c r="B22" s="331" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="331"/>
+      <c r="D22" s="331"/>
       <c r="E22" s="154"/>
       <c r="F22" s="155"/>
       <c r="G22" s="155"/>
@@ -8669,6 +8660,20 @@
     <row r="34" s="114" customFormat="1" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C3:E3"/>
@@ -8680,20 +8685,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="F6:K6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="O5:T5"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -8721,7 +8712,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8745,55 +8736,55 @@
       <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="321" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="322"/>
+      <c r="C2" s="323" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="325"/>
+      <c r="F2" s="322" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="322"/>
+      <c r="L2" s="361" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
+      <c r="R2" s="362"/>
+      <c r="S2" s="362"/>
+      <c r="T2" s="363"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="358" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="318" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="320"/>
-      <c r="F2" s="317" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="346" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="347"/>
-      <c r="S2" s="347"/>
-      <c r="T2" s="348"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="343" t="s">
+      <c r="B3" s="359"/>
+      <c r="C3" s="333" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="334"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="355" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="355" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="356"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="340" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
       <c r="O3" s="116"/>
       <c r="P3" s="116"/>
       <c r="Q3" s="116"/>
@@ -8802,89 +8793,89 @@
       <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="343" t="s">
+      <c r="A4" s="358" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="359"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="355" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="344"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="340" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="361">
+      <c r="G4" s="356"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="356"/>
+      <c r="J4" s="356"/>
+      <c r="K4" s="357"/>
+      <c r="L4" s="340">
         <f xml:space="preserve"> IF(機能一覧!E6&lt;&gt;"N/A",SUM(C4*機能一覧!E6/1000,- O6),"N/A")</f>
         <v>-3</v>
       </c>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="363"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="341"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="341"/>
+      <c r="Q4" s="341"/>
+      <c r="R4" s="341"/>
+      <c r="S4" s="341"/>
+      <c r="T4" s="342"/>
       <c r="V4" s="119"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="336" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="337"/>
+      <c r="C5" s="353" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="337" t="s">
+      <c r="D5" s="338"/>
+      <c r="E5" s="354"/>
+      <c r="F5" s="353" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="338"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="337" t="s">
-        <v>116</v>
       </c>
       <c r="G5" s="338"/>
       <c r="H5" s="338"/>
       <c r="I5" s="338"/>
       <c r="J5" s="338"/>
-      <c r="K5" s="349"/>
+      <c r="K5" s="364"/>
       <c r="L5" s="338" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="338"/>
       <c r="N5" s="338"/>
-      <c r="O5" s="351" t="s">
-        <v>117</v>
+      <c r="O5" s="366" t="s">
+        <v>116</v>
       </c>
       <c r="P5" s="338"/>
       <c r="Q5" s="338"/>
       <c r="R5" s="338"/>
       <c r="S5" s="338"/>
-      <c r="T5" s="352"/>
+      <c r="T5" s="367"/>
       <c r="V5" s="119"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="336">
+      <c r="A6" s="352">
         <f>COUNTIF(F23:HE23,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="335"/>
-      <c r="C6" s="332">
+      <c r="B6" s="351"/>
+      <c r="C6" s="348">
         <f>COUNTIF(F23:HE23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="330"/>
-      <c r="E6" s="335"/>
-      <c r="F6" s="332">
+      <c r="D6" s="346"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="348">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="333"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="346"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="349"/>
       <c r="L6" s="120">
         <f>COUNTIF(E22:HE22,"N")</f>
         <v>1</v>
@@ -8897,15 +8888,15 @@
         <f>COUNTIF(E22:HE22,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="329">
+      <c r="O6" s="345">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="330"/>
-      <c r="S6" s="330"/>
-      <c r="T6" s="331"/>
+      <c r="P6" s="346"/>
+      <c r="Q6" s="346"/>
+      <c r="R6" s="346"/>
+      <c r="S6" s="346"/>
+      <c r="T6" s="347"/>
       <c r="U6" s="121"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -8930,10 +8921,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="125" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="126"/>
       <c r="D9" s="127"/>
@@ -8947,7 +8938,7 @@
       <c r="B10" s="125"/>
       <c r="C10" s="126"/>
       <c r="D10" s="127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="130"/>
       <c r="F10" s="129"/>
@@ -8978,7 +8969,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="162"/>
       <c r="B13" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
@@ -8992,11 +8983,11 @@
       <c r="B14" s="125"/>
       <c r="C14" s="126"/>
       <c r="D14" s="127" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" s="223"/>
       <c r="F14" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
@@ -9006,13 +8997,13 @@
       <c r="A15" s="162"/>
       <c r="B15" s="125"/>
       <c r="C15" s="126"/>
-      <c r="D15" s="226" t="s">
-        <v>131</v>
+      <c r="D15" s="226">
+        <v>0</v>
       </c>
       <c r="E15" s="223"/>
       <c r="F15" s="129"/>
       <c r="G15" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="129"/>
     </row>
@@ -9021,22 +9012,22 @@
       <c r="B16" s="125"/>
       <c r="C16" s="126"/>
       <c r="D16" s="127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="223"/>
       <c r="F16" s="129"/>
       <c r="G16" s="129"/>
       <c r="H16" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" s="133"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1">
       <c r="A17" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="134" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="134" t="s">
-        <v>61</v>
       </c>
       <c r="C17" s="135"/>
       <c r="D17" s="136"/>
@@ -9050,11 +9041,11 @@
       <c r="B18" s="139"/>
       <c r="C18" s="140"/>
       <c r="D18" s="141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="221"/>
       <c r="F18" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="129"/>
       <c r="H18" s="129"/>
@@ -9064,25 +9055,25 @@
       <c r="B19" s="139"/>
       <c r="C19" s="142"/>
       <c r="D19" s="141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="143"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="164"/>
       <c r="B20" s="134" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="366"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="247"/>
       <c r="D20" s="136"/>
-      <c r="E20" s="367"/>
+      <c r="E20" s="248"/>
       <c r="F20" s="138"/>
       <c r="G20" s="138"/>
       <c r="H20" s="138"/>
@@ -9090,64 +9081,64 @@
     <row r="21" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A21" s="164"/>
       <c r="B21" s="134"/>
-      <c r="C21" s="366"/>
+      <c r="C21" s="247"/>
       <c r="D21" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="367"/>
+        <v>161</v>
+      </c>
+      <c r="E21" s="248"/>
       <c r="F21" s="138"/>
       <c r="G21" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A22" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="354" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="354"/>
-      <c r="D22" s="354"/>
+      <c r="C22" s="332"/>
+      <c r="D22" s="332"/>
       <c r="E22" s="222"/>
       <c r="F22" s="150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1">
       <c r="A23" s="165"/>
-      <c r="B23" s="334" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="334"/>
-      <c r="D23" s="334"/>
+      <c r="B23" s="350" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="350"/>
+      <c r="D23" s="350"/>
       <c r="E23" s="151"/>
       <c r="F23" s="152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1">
       <c r="A24" s="165"/>
-      <c r="B24" s="360" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="360"/>
-      <c r="D24" s="360"/>
+      <c r="B24" s="339" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="339"/>
+      <c r="D24" s="339"/>
       <c r="E24" s="143"/>
       <c r="F24" s="153">
         <v>39139</v>
@@ -9161,11 +9152,11 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A25" s="166"/>
-      <c r="B25" s="353" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="353"/>
-      <c r="D25" s="353"/>
+      <c r="B25" s="331" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="331"/>
+      <c r="D25" s="331"/>
       <c r="E25" s="154"/>
       <c r="F25" s="155"/>
       <c r="G25" s="155"/>
@@ -9181,14 +9172,13 @@
     <row r="40" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="B22:D22"/>
@@ -9199,13 +9189,14 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
